--- a/data/trans_bre/P0902-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P0902-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>14.33738285166185</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15.44545770249011</v>
+        <v>15.44545770249012</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5120892328611492</v>
@@ -649,7 +649,7 @@
         <v>0.6954529597404822</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5901393876459653</v>
+        <v>0.5901393876459655</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.922941185726673</v>
+        <v>4.511087044118219</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.540381929480157</v>
+        <v>7.617842412287697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.0612767050397</v>
+        <v>9.918787922590205</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11.47424646654038</v>
+        <v>10.99841770000245</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2810711089538189</v>
+        <v>0.2483772352786066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3267651885718397</v>
+        <v>0.2945974896021132</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4465113723809974</v>
+        <v>0.4163654200737671</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3851082511265007</v>
+        <v>0.3728571824178212</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.13005424938916</v>
+        <v>10.89990199239734</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.18923216233251</v>
+        <v>15.65947510789763</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.34087986874333</v>
+        <v>18.46178467009979</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.01394904471448</v>
+        <v>19.52956948553449</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7877004249480234</v>
+        <v>0.7708382387686653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7707745664492298</v>
+        <v>0.7354677051532903</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9783601209542798</v>
+        <v>0.9905362864834371</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8624693488807129</v>
+        <v>0.8219402149625133</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.333406150828301</v>
+        <v>2.584908820551993</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.178889726841016</v>
+        <v>3.284028706708057</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.317476935078244</v>
+        <v>3.332295985532857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.115210927896479</v>
+        <v>2.015161296426979</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4101418502803709</v>
+        <v>0.4294914129070929</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4460509911506918</v>
+        <v>0.4651690238322231</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4648839162953926</v>
+        <v>0.4303631215917965</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1814094365014279</v>
+        <v>0.1738869711627498</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.139371930141078</v>
+        <v>6.021258227278482</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.051281297865692</v>
+        <v>7.165118464364781</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.199313158214051</v>
+        <v>7.01985418787307</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.869945880288887</v>
+        <v>5.897292310354215</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.419068323463533</v>
+        <v>1.403548701301799</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.302781368111667</v>
+        <v>1.303121400244837</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.304284630269709</v>
+        <v>1.254809371067074</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6214418062570886</v>
+        <v>0.6163470641276191</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.8287269351447256</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3268870688288198</v>
+        <v>0.3268870688288199</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.831528508731888</v>
+        <v>1.085867714738306</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.578812899750652</v>
+        <v>-1.911100436919651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5977479395111518</v>
+        <v>0.937843914872827</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1385620965339556</v>
+        <v>-0.4540719139716823</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1223634238549635</v>
+        <v>0.1414255797951891</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2251621176628082</v>
+        <v>-0.2639251442661128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08120919672526875</v>
+        <v>0.1110109084149386</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.01756590728665408</v>
+        <v>-0.05351354854674699</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.449196793846339</v>
+        <v>7.108555270852193</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.394258673924873</v>
+        <v>5.538214909360962</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.464232504486065</v>
+        <v>7.716515893166139</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.329193311099004</v>
+        <v>4.895843239712819</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.468171309398879</v>
+        <v>2.425842368531795</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.400113890741768</v>
+        <v>1.395212087365268</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.129638625971344</v>
+        <v>2.141844785365235</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9320345671355686</v>
+        <v>0.8130484306558039</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.434343266755947</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.086304093625239</v>
+        <v>7.086304093625243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.789835633509702</v>
@@ -949,7 +949,7 @@
         <v>0.9102950979607198</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5663515187506195</v>
+        <v>0.5663515187506198</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.941235208657972</v>
+        <v>5.069613356825497</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.09469751011695</v>
+        <v>7.166332488585349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.634630514865513</v>
+        <v>6.634001641709923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.368806075006565</v>
+        <v>5.427704568713783</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5543569391865506</v>
+        <v>0.5744096197612113</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5936866424370012</v>
+        <v>0.6079429360085703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6638242095172939</v>
+        <v>0.6760208698507257</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3967395195091752</v>
+        <v>0.4015724546832959</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.020125256336428</v>
+        <v>8.023856976890263</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.65274017674963</v>
+        <v>10.72550025344956</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.04111759504887</v>
+        <v>10.15924753342793</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.644741608316306</v>
+        <v>8.724762388377043</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.077040117920043</v>
+        <v>1.074225507609279</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.052967248378259</v>
+        <v>1.057714045864955</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.179670979706542</v>
+        <v>1.191952303511127</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7390204868129148</v>
+        <v>0.7331465288386004</v>
       </c>
     </row>
     <row r="16">
